--- a/Output_code/Data/Appendix_H_2plus_granted.xlsx
+++ b/Output_code/Data/Appendix_H_2plus_granted.xlsx
@@ -479,25 +479,25 @@
         <v>2.54405005933758</v>
       </c>
       <c r="B2" t="n">
-        <v>0.774916728714489</v>
+        <v>0.735378663745348</v>
       </c>
       <c r="C2" t="n">
-        <v>1.26931204060224</v>
+        <v>1.33435215747648</v>
       </c>
       <c r="D2" t="n">
-        <v>3.81878807807291</v>
+        <v>3.75374796119867</v>
       </c>
       <c r="E2" t="n">
-        <v>1.02521327105718</v>
+        <v>1.1027078783967</v>
       </c>
       <c r="F2" t="n">
-        <v>4.06288684761797</v>
+        <v>3.98539224027846</v>
       </c>
       <c r="G2" t="n">
-        <v>0.547864566169054</v>
+        <v>0.649714621529561</v>
       </c>
       <c r="H2" t="n">
-        <v>4.5402355525061</v>
+        <v>4.43838549714559</v>
       </c>
       <c r="I2" t="s">
         <v>13</v>
@@ -520,25 +520,25 @@
         <v>1.36771810173345</v>
       </c>
       <c r="B3" t="n">
-        <v>1.050598421571</v>
+        <v>1.00299774362593</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.360516301750845</v>
+        <v>-0.282213186531206</v>
       </c>
       <c r="D3" t="n">
-        <v>3.09595250521774</v>
+        <v>3.0176493899981</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.691454804545709</v>
+        <v>-0.598157475773374</v>
       </c>
       <c r="F3" t="n">
-        <v>3.4268910080126</v>
+        <v>3.33359367924027</v>
       </c>
       <c r="G3" t="n">
-        <v>-1.33862343223344</v>
+        <v>-1.21600408584695</v>
       </c>
       <c r="H3" t="n">
-        <v>4.07405963570034</v>
+        <v>3.95144028931384</v>
       </c>
       <c r="I3" t="s">
         <v>18</v>
@@ -561,25 +561,25 @@
         <v>0.0986429467442125</v>
       </c>
       <c r="B4" t="n">
-        <v>0.722254382751638</v>
+        <v>0.734631098378257</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.08946551288223</v>
+        <v>-1.10982521008802</v>
       </c>
       <c r="D4" t="n">
-        <v>1.28675140637066</v>
+        <v>1.30711110357644</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.316975643449</v>
+        <v>-1.34123400607717</v>
       </c>
       <c r="F4" t="n">
-        <v>1.51426153693742</v>
+        <v>1.5385198995656</v>
       </c>
       <c r="G4" t="n">
-        <v>-1.76188434322401</v>
+        <v>-1.79376676267818</v>
       </c>
       <c r="H4" t="n">
-        <v>1.95917023671243</v>
+        <v>1.9910526561666</v>
       </c>
       <c r="I4" t="s">
         <v>18</v>
@@ -602,25 +602,25 @@
         <v>103.241323027996</v>
       </c>
       <c r="B5" t="n">
-        <v>27.0090380567203</v>
+        <v>27.8146953861678</v>
       </c>
       <c r="C5" t="n">
-        <v>58.8114554246907</v>
+        <v>57.4861491177497</v>
       </c>
       <c r="D5" t="n">
-        <v>147.671190631301</v>
+        <v>148.996496938242</v>
       </c>
       <c r="E5" t="n">
-        <v>50.3036084368238</v>
+        <v>48.7245200711068</v>
       </c>
       <c r="F5" t="n">
-        <v>156.179037619168</v>
+        <v>157.758125984884</v>
       </c>
       <c r="G5" t="n">
-        <v>33.6660409938841</v>
+        <v>31.5906677132275</v>
       </c>
       <c r="H5" t="n">
-        <v>172.816605062107</v>
+        <v>174.891978342764</v>
       </c>
       <c r="I5" t="s">
         <v>13</v>
@@ -643,25 +643,25 @@
         <v>52.7582308068637</v>
       </c>
       <c r="B6" t="n">
-        <v>14.8485025230641</v>
+        <v>14.3641210354613</v>
       </c>
       <c r="C6" t="n">
-        <v>28.3324441564233</v>
+        <v>29.1292517035299</v>
       </c>
       <c r="D6" t="n">
-        <v>77.1840174573041</v>
+        <v>76.3872099101975</v>
       </c>
       <c r="E6" t="n">
-        <v>23.6551658616581</v>
+        <v>24.6045535773596</v>
       </c>
       <c r="F6" t="n">
-        <v>81.8612957520693</v>
+        <v>80.9119080363677</v>
       </c>
       <c r="G6" t="n">
-        <v>14.5084883074506</v>
+        <v>15.7562550195155</v>
       </c>
       <c r="H6" t="n">
-        <v>91.0079733062768</v>
+        <v>89.7602065942119</v>
       </c>
       <c r="I6" t="s">
         <v>13</v>
@@ -684,25 +684,25 @@
         <v>72.2011811490978</v>
       </c>
       <c r="B7" t="n">
-        <v>20.4969292490148</v>
+        <v>20.9869660482663</v>
       </c>
       <c r="C7" t="n">
-        <v>38.4837325344684</v>
+        <v>37.6776219996997</v>
       </c>
       <c r="D7" t="n">
-        <v>105.918629763727</v>
+        <v>106.724740298496</v>
       </c>
       <c r="E7" t="n">
-        <v>32.0271998210288</v>
+        <v>31.0667276944959</v>
       </c>
       <c r="F7" t="n">
-        <v>112.375162477167</v>
+        <v>113.3356346037</v>
       </c>
       <c r="G7" t="n">
-        <v>19.4010914036356</v>
+        <v>18.1387566087638</v>
       </c>
       <c r="H7" t="n">
-        <v>125.00127089456</v>
+        <v>126.263605689432</v>
       </c>
       <c r="I7" t="s">
         <v>13</v>
@@ -725,25 +725,25 @@
         <v>3.802359983487</v>
       </c>
       <c r="B8" t="n">
-        <v>0.810488786578706</v>
+        <v>0.760988161627314</v>
       </c>
       <c r="C8" t="n">
-        <v>2.46910592956502</v>
+        <v>2.55053445761006</v>
       </c>
       <c r="D8" t="n">
-        <v>5.13561403740897</v>
+        <v>5.05418550936393</v>
       </c>
       <c r="E8" t="n">
-        <v>2.21380196179273</v>
+        <v>2.31082318669746</v>
       </c>
       <c r="F8" t="n">
-        <v>5.39091800518126</v>
+        <v>5.29389678027653</v>
       </c>
       <c r="G8" t="n">
-        <v>1.71454086926025</v>
+        <v>1.84205447913504</v>
       </c>
       <c r="H8" t="n">
-        <v>5.89017909771374</v>
+        <v>5.76266548783896</v>
       </c>
       <c r="I8" t="s">
         <v>13</v>
@@ -766,25 +766,25 @@
         <v>3.67199079526717</v>
       </c>
       <c r="B9" t="n">
-        <v>0.927984855072266</v>
+        <v>0.930129833020484</v>
       </c>
       <c r="C9" t="n">
-        <v>2.14545570867329</v>
+        <v>2.14192721994848</v>
       </c>
       <c r="D9" t="n">
-        <v>5.19852588186105</v>
+        <v>5.20205437058587</v>
       </c>
       <c r="E9" t="n">
-        <v>1.85314047932553</v>
+        <v>1.84893632254702</v>
       </c>
       <c r="F9" t="n">
-        <v>5.49084111120881</v>
+        <v>5.49504526798732</v>
       </c>
       <c r="G9" t="n">
-        <v>1.28150180860101</v>
+        <v>1.27597634540641</v>
       </c>
       <c r="H9" t="n">
-        <v>6.06247978193333</v>
+        <v>6.06800524512794</v>
       </c>
       <c r="I9" t="s">
         <v>13</v>
@@ -807,25 +807,25 @@
         <v>0.455187559354226</v>
       </c>
       <c r="B10" t="n">
-        <v>1.3116334852605</v>
+        <v>1.29867752460448</v>
       </c>
       <c r="C10" t="n">
-        <v>-1.7024495238993</v>
+        <v>-1.68113696862015</v>
       </c>
       <c r="D10" t="n">
-        <v>2.61282464260775</v>
+        <v>2.5915120873286</v>
       </c>
       <c r="E10" t="n">
-        <v>-2.11561407175636</v>
+        <v>-2.09022038887056</v>
       </c>
       <c r="F10" t="n">
-        <v>3.02598919046481</v>
+        <v>3.00059550757901</v>
       </c>
       <c r="G10" t="n">
-        <v>-2.92358029867682</v>
+        <v>-2.89020574402692</v>
       </c>
       <c r="H10" t="n">
-        <v>3.83395541738528</v>
+        <v>3.80058086273537</v>
       </c>
       <c r="I10" t="s">
         <v>18</v>
@@ -848,25 +848,25 @@
         <v>0.456667054549216</v>
       </c>
       <c r="B11" t="n">
-        <v>0.128129703132375</v>
+        <v>0.12584480108084</v>
       </c>
       <c r="C11" t="n">
-        <v>0.245893692896459</v>
+        <v>0.249652356771234</v>
       </c>
       <c r="D11" t="n">
-        <v>0.667440416201973</v>
+        <v>0.663681752327198</v>
       </c>
       <c r="E11" t="n">
-        <v>0.205532836409761</v>
+        <v>0.210011244430769</v>
       </c>
       <c r="F11" t="n">
-        <v>0.707801272688671</v>
+        <v>0.703322864667662</v>
       </c>
       <c r="G11" t="n">
-        <v>0.126604939280218</v>
+        <v>0.132490846964972</v>
       </c>
       <c r="H11" t="n">
-        <v>0.786729169818214</v>
+        <v>0.78084326213346</v>
       </c>
       <c r="I11" t="s">
         <v>13</v>
@@ -889,25 +889,25 @@
         <v>0.31746821448314</v>
       </c>
       <c r="B12" t="n">
-        <v>0.145108118745228</v>
+        <v>0.139958486937815</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0787653591472404</v>
+        <v>0.0872365034704346</v>
       </c>
       <c r="D12" t="n">
-        <v>0.556171069819039</v>
+        <v>0.547699925495845</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0330563017424937</v>
+        <v>0.043149580085023</v>
       </c>
       <c r="F12" t="n">
-        <v>0.601880127223786</v>
+        <v>0.591786848881257</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.0563302994045665</v>
+        <v>-0.0430648478686709</v>
       </c>
       <c r="H12" t="n">
-        <v>0.691266728370846</v>
+        <v>0.678001276834951</v>
       </c>
       <c r="I12" t="s">
         <v>24</v>
@@ -930,25 +930,25 @@
         <v>-0.107990012484394</v>
       </c>
       <c r="B13" t="n">
-        <v>0.149703387316797</v>
+        <v>0.149591758607075</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.354252084620525</v>
+        <v>-0.354068455393032</v>
       </c>
       <c r="D13" t="n">
-        <v>0.138272059651736</v>
+        <v>0.138088430424243</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.401408651625316</v>
+        <v>-0.401189859354261</v>
       </c>
       <c r="F13" t="n">
-        <v>0.185428626656527</v>
+        <v>0.185209834385472</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.493625938212463</v>
+        <v>-0.493338382656219</v>
       </c>
       <c r="H13" t="n">
-        <v>0.277645913243674</v>
+        <v>0.27735835768743</v>
       </c>
       <c r="I13" t="s">
         <v>18</v>
@@ -971,25 +971,25 @@
         <v>8.28805451042758</v>
       </c>
       <c r="B14" t="n">
-        <v>2.21234124589411</v>
+        <v>1.97684717244242</v>
       </c>
       <c r="C14" t="n">
-        <v>4.64875316093177</v>
+        <v>5.0361409117598</v>
       </c>
       <c r="D14" t="n">
-        <v>11.9273558599234</v>
+        <v>11.5399681090954</v>
       </c>
       <c r="E14" t="n">
-        <v>3.95186566847512</v>
+        <v>4.41343405244044</v>
       </c>
       <c r="F14" t="n">
-        <v>12.62424335238</v>
+        <v>12.1626749684147</v>
       </c>
       <c r="G14" t="n">
-        <v>2.58906346100435</v>
+        <v>3.19569619421591</v>
       </c>
       <c r="H14" t="n">
-        <v>13.9870455598508</v>
+        <v>13.3804128266392</v>
       </c>
       <c r="I14" t="s">
         <v>13</v>
@@ -1012,25 +1012,25 @@
         <v>7.52498618021006</v>
       </c>
       <c r="B15" t="n">
-        <v>2.2217039374582</v>
+        <v>2.08691897626057</v>
       </c>
       <c r="C15" t="n">
-        <v>3.87028320309132</v>
+        <v>4.09200446426142</v>
       </c>
       <c r="D15" t="n">
-        <v>11.1796891573288</v>
+        <v>10.9579678961587</v>
       </c>
       <c r="E15" t="n">
-        <v>3.17044646279199</v>
+        <v>3.43462498673934</v>
       </c>
       <c r="F15" t="n">
-        <v>11.8795258976281</v>
+        <v>11.6153473736808</v>
       </c>
       <c r="G15" t="n">
-        <v>1.80187683731773</v>
+        <v>2.14908289736283</v>
       </c>
       <c r="H15" t="n">
-        <v>13.2480955231024</v>
+        <v>12.9008894630573</v>
       </c>
       <c r="I15" t="s">
         <v>13</v>
@@ -1053,25 +1053,25 @@
         <v>7.34725823489868</v>
       </c>
       <c r="B16" t="n">
-        <v>2.26839108087982</v>
+        <v>2.27314332042544</v>
       </c>
       <c r="C16" t="n">
-        <v>3.61575490685139</v>
+        <v>3.60793747279884</v>
       </c>
       <c r="D16" t="n">
-        <v>11.078761562946</v>
+        <v>11.0865789969985</v>
       </c>
       <c r="E16" t="n">
-        <v>2.90121171637425</v>
+        <v>2.89189732686482</v>
       </c>
       <c r="F16" t="n">
-        <v>11.7933047534231</v>
+        <v>11.8026191429325</v>
       </c>
       <c r="G16" t="n">
-        <v>1.50388281055228</v>
+        <v>1.49164104148275</v>
       </c>
       <c r="H16" t="n">
-        <v>13.1906336592451</v>
+        <v>13.2028754283146</v>
       </c>
       <c r="I16" t="s">
         <v>13</v>
@@ -1094,25 +1094,25 @@
         <v>-0.047003254690582</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0261084103162376</v>
+        <v>0.0251275413811412</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.0899515896607928</v>
+        <v>-0.0883380602625592</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.00405491972037116</v>
+        <v>-0.00566844911860478</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.0981757389104077</v>
+        <v>-0.0962532357976187</v>
       </c>
       <c r="F17" t="n">
-        <v>0.00416922952924368</v>
+        <v>0.00224672641645467</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.11425851966521</v>
+        <v>-0.111731801288402</v>
       </c>
       <c r="H17" t="n">
-        <v>0.020252010284046</v>
+        <v>0.0177252919072376</v>
       </c>
       <c r="I17" t="s">
         <v>26</v>
@@ -1135,25 +1135,25 @@
         <v>-0.0245432908838868</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0234709979196878</v>
+        <v>0.0254103312378354</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.0631530824617733</v>
+        <v>-0.0663432857701261</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0140665006939996</v>
+        <v>0.0172567040023525</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.0705464468064749</v>
+        <v>-0.0743475401100443</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0214598650387013</v>
+        <v>0.0252609583422706</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.0850045815250026</v>
+        <v>-0.0900003041525509</v>
       </c>
       <c r="H18" t="n">
-        <v>0.035917999757229</v>
+        <v>0.0409137223847773</v>
       </c>
       <c r="I18" t="s">
         <v>18</v>
@@ -1176,25 +1176,25 @@
         <v>0.00237018418845215</v>
       </c>
       <c r="B19" t="n">
-        <v>0.022122323331771</v>
+        <v>0.0201656819840807</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.0340210376923111</v>
+        <v>-0.0308023626753606</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0387614060692154</v>
+        <v>0.0355427310522649</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.040989569541819</v>
+        <v>-0.037154552500346</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0457299379187233</v>
+        <v>0.0418949208772503</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.0546169207141899</v>
+        <v>-0.0495766126025397</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0593572890910942</v>
+        <v>0.054316980979444</v>
       </c>
       <c r="I19" t="s">
         <v>18</v>
@@ -1217,25 +1217,25 @@
         <v>0.301175543610196</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0995341618798062</v>
+        <v>0.0908396450219144</v>
       </c>
       <c r="C20" t="n">
-        <v>0.137441847317915</v>
+        <v>0.151744327549147</v>
       </c>
       <c r="D20" t="n">
-        <v>0.464909239902477</v>
+        <v>0.450606759671245</v>
       </c>
       <c r="E20" t="n">
-        <v>0.106088586325776</v>
+        <v>0.123129839367244</v>
       </c>
       <c r="F20" t="n">
-        <v>0.496262500894616</v>
+        <v>0.479221247853148</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0447755426078152</v>
+        <v>0.0671726180337445</v>
       </c>
       <c r="H20" t="n">
-        <v>0.557575544612577</v>
+        <v>0.535178469186647</v>
       </c>
       <c r="I20" t="s">
         <v>13</v>
@@ -1258,25 +1258,25 @@
         <v>0.248099892976976</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0935142441318476</v>
+        <v>0.0921811768207059</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0942689613800862</v>
+        <v>0.0964618571069143</v>
       </c>
       <c r="D21" t="n">
-        <v>0.401930824573865</v>
+        <v>0.399737928847037</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0648119744785542</v>
+        <v>0.0674247864083919</v>
       </c>
       <c r="F21" t="n">
-        <v>0.431387811475397</v>
+        <v>0.428774999545559</v>
       </c>
       <c r="G21" t="n">
-        <v>0.00720720009333603</v>
+        <v>0.010641181486837</v>
       </c>
       <c r="H21" t="n">
-        <v>0.488992585860615</v>
+        <v>0.485558604467114</v>
       </c>
       <c r="I21" t="s">
         <v>13</v>
@@ -1299,25 +1299,25 @@
         <v>0.0457285330948122</v>
       </c>
       <c r="B22" t="n">
-        <v>0.156419802223062</v>
+        <v>0.15698778292086</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.211582041562124</v>
+        <v>-0.212516369810002</v>
       </c>
       <c r="D22" t="n">
-        <v>0.303039107751749</v>
+        <v>0.303973435999626</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.260854279262389</v>
+        <v>-0.261967521430073</v>
       </c>
       <c r="F22" t="n">
-        <v>0.352311345452013</v>
+        <v>0.353424587619697</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.357208877431795</v>
+        <v>-0.358671995709322</v>
       </c>
       <c r="H22" t="n">
-        <v>0.448665943621419</v>
+        <v>0.450129061898947</v>
       </c>
       <c r="I22" t="s">
         <v>18</v>
@@ -1340,25 +1340,25 @@
         <v>0.862731831873155</v>
       </c>
       <c r="B23" t="n">
-        <v>0.13508149991302</v>
+        <v>0.128652771948398</v>
       </c>
       <c r="C23" t="n">
-        <v>0.640522764516237</v>
+        <v>0.651098022018041</v>
       </c>
       <c r="D23" t="n">
-        <v>1.08494089923007</v>
+        <v>1.07436564172827</v>
       </c>
       <c r="E23" t="n">
-        <v>0.597972092043636</v>
+        <v>0.610572398854295</v>
       </c>
       <c r="F23" t="n">
-        <v>1.12749157170268</v>
+        <v>1.11489126489202</v>
       </c>
       <c r="G23" t="n">
-        <v>0.514761888097215</v>
+        <v>0.531322291334082</v>
       </c>
       <c r="H23" t="n">
-        <v>1.2107017756491</v>
+        <v>1.19414137241223</v>
       </c>
       <c r="I23" t="s">
         <v>13</v>
@@ -1381,25 +1381,25 @@
         <v>0.477676710938774</v>
       </c>
       <c r="B24" t="n">
-        <v>0.146499525208768</v>
+        <v>0.13846547711509</v>
       </c>
       <c r="C24" t="n">
-        <v>0.23668499197035</v>
+        <v>0.249901001084451</v>
       </c>
       <c r="D24" t="n">
-        <v>0.718668429907198</v>
+        <v>0.705452420793097</v>
       </c>
       <c r="E24" t="n">
-        <v>0.190537641529588</v>
+        <v>0.206284375793198</v>
       </c>
       <c r="F24" t="n">
-        <v>0.76481578034796</v>
+        <v>0.749069046084351</v>
       </c>
       <c r="G24" t="n">
-        <v>0.100293934000987</v>
+        <v>0.120989641890302</v>
       </c>
       <c r="H24" t="n">
-        <v>0.855059487876561</v>
+        <v>0.834363779987246</v>
       </c>
       <c r="I24" t="s">
         <v>13</v>
@@ -1422,25 +1422,25 @@
         <v>0.323361823361823</v>
       </c>
       <c r="B25" t="n">
-        <v>0.151017815525697</v>
+        <v>0.153142194572016</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0749375168220514</v>
+        <v>0.0714429132908564</v>
       </c>
       <c r="D25" t="n">
-        <v>0.571786129901595</v>
+        <v>0.57528073343279</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0273669049314568</v>
+        <v>0.0232031220006712</v>
       </c>
       <c r="F25" t="n">
-        <v>0.61935674179219</v>
+        <v>0.623520524722975</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.0656600694323727</v>
+        <v>-0.0711324698556909</v>
       </c>
       <c r="H25" t="n">
-        <v>0.712383716156019</v>
+        <v>0.717856116579338</v>
       </c>
       <c r="I25" t="s">
         <v>24</v>

--- a/Output_code/Data/Appendix_H_2plus_granted.xlsx
+++ b/Output_code/Data/Appendix_H_2plus_granted.xlsx
@@ -56,7 +56,7 @@
     <t xml:space="preserve">***</t>
   </si>
   <si>
-    <t xml:space="preserve">DataLong_Subs_sim_group1</t>
+    <t xml:space="preserve">Q1</t>
   </si>
   <si>
     <t xml:space="preserve">Relatedness_Cos2</t>
@@ -68,40 +68,40 @@
     <t xml:space="preserve">non_standard</t>
   </si>
   <si>
+    <t xml:space="preserve">NoPatentsYearGUOtotal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specializations_Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UniqueCodes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UniqueSubclass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Herfindahl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shannon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AIcodes</t>
+  </si>
+  <si>
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">DataLong_Subs_sim_group2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DataLong_Subs_sim_group3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NoPatentsYearGUOtotal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Specializations_Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UniqueCodes</t>
+    <t xml:space="preserve">IQR</t>
   </si>
   <si>
     <t xml:space="preserve">**</t>
   </si>
   <si>
-    <t xml:space="preserve">UniqueSubclass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Herfindahl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shannon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AIcodes</t>
+    <t xml:space="preserve">Q4</t>
   </si>
 </sst>
 </file>
@@ -479,25 +479,25 @@
         <v>2.54405005933758</v>
       </c>
       <c r="B2" t="n">
-        <v>0.735378663745348</v>
+        <v>0.713823906223161</v>
       </c>
       <c r="C2" t="n">
-        <v>1.33435215747648</v>
+        <v>1.36980973360048</v>
       </c>
       <c r="D2" t="n">
-        <v>3.75374796119867</v>
+        <v>3.71829038507468</v>
       </c>
       <c r="E2" t="n">
-        <v>1.1027078783967</v>
+        <v>1.14495520314018</v>
       </c>
       <c r="F2" t="n">
-        <v>3.98539224027846</v>
+        <v>3.94314491553497</v>
       </c>
       <c r="G2" t="n">
-        <v>0.649714621529561</v>
+        <v>0.705239676906715</v>
       </c>
       <c r="H2" t="n">
-        <v>4.43838549714559</v>
+        <v>4.38286044176844</v>
       </c>
       <c r="I2" t="s">
         <v>13</v>
@@ -517,37 +517,37 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.36771810173345</v>
+        <v>103.241323027996</v>
       </c>
       <c r="B3" t="n">
-        <v>1.00299774362593</v>
+        <v>28.6980079558306</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.282213186531206</v>
+        <v>56.0330999406543</v>
       </c>
       <c r="D3" t="n">
-        <v>3.0176493899981</v>
+        <v>150.449546115337</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.598157475773374</v>
+        <v>46.9932274345677</v>
       </c>
       <c r="F3" t="n">
-        <v>3.33359367924027</v>
+        <v>159.489418621424</v>
       </c>
       <c r="G3" t="n">
-        <v>-1.21600408584695</v>
+        <v>29.315254533776</v>
       </c>
       <c r="H3" t="n">
-        <v>3.95144028931384</v>
+        <v>177.167391522215</v>
       </c>
       <c r="I3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" t="s">
         <v>18</v>
-      </c>
-      <c r="J3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" t="s">
-        <v>15</v>
       </c>
       <c r="L3" t="s">
         <v>16</v>
@@ -558,37 +558,37 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.0986429467442125</v>
+        <v>3.802359983487</v>
       </c>
       <c r="B4" t="n">
-        <v>0.734631098378257</v>
+        <v>0.742691466635083</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.10982521008802</v>
+        <v>2.58063252087228</v>
       </c>
       <c r="D4" t="n">
-        <v>1.30711110357644</v>
+        <v>5.02408744610171</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.34123400607717</v>
+        <v>2.34668470888223</v>
       </c>
       <c r="F4" t="n">
-        <v>1.5385198995656</v>
+        <v>5.25803525809176</v>
       </c>
       <c r="G4" t="n">
-        <v>-1.79376676267818</v>
+        <v>1.88918676543502</v>
       </c>
       <c r="H4" t="n">
-        <v>1.9910526561666</v>
+        <v>5.71553320153897</v>
       </c>
       <c r="I4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="K4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="L4" t="s">
         <v>16</v>
@@ -599,28 +599,28 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>103.241323027996</v>
+        <v>0.456667054549216</v>
       </c>
       <c r="B5" t="n">
-        <v>27.8146953861678</v>
+        <v>0.11692827793399</v>
       </c>
       <c r="C5" t="n">
-        <v>57.4861491177497</v>
+        <v>0.264320037347802</v>
       </c>
       <c r="D5" t="n">
-        <v>148.996496938242</v>
+        <v>0.64901407175063</v>
       </c>
       <c r="E5" t="n">
-        <v>48.7245200711068</v>
+        <v>0.227487629798595</v>
       </c>
       <c r="F5" t="n">
-        <v>157.758125984884</v>
+        <v>0.685846479299837</v>
       </c>
       <c r="G5" t="n">
-        <v>31.5906677132275</v>
+        <v>0.155459810591257</v>
       </c>
       <c r="H5" t="n">
-        <v>174.891978342764</v>
+        <v>0.757874298507175</v>
       </c>
       <c r="I5" t="s">
         <v>13</v>
@@ -629,7 +629,7 @@
         <v>14</v>
       </c>
       <c r="K5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L5" t="s">
         <v>16</v>
@@ -640,34 +640,34 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>52.7582308068637</v>
+        <v>8.28805451042758</v>
       </c>
       <c r="B6" t="n">
-        <v>14.3641210354613</v>
+        <v>2.07654687394604</v>
       </c>
       <c r="C6" t="n">
-        <v>29.1292517035299</v>
+        <v>4.87213490278634</v>
       </c>
       <c r="D6" t="n">
-        <v>76.3872099101975</v>
+        <v>11.7039741180688</v>
       </c>
       <c r="E6" t="n">
-        <v>24.6045535773596</v>
+        <v>4.21802263749334</v>
       </c>
       <c r="F6" t="n">
-        <v>80.9119080363677</v>
+        <v>12.3580863833618</v>
       </c>
       <c r="G6" t="n">
-        <v>15.7562550195155</v>
+        <v>2.93886976314258</v>
       </c>
       <c r="H6" t="n">
-        <v>89.7602065942119</v>
+        <v>13.6372392577126</v>
       </c>
       <c r="I6" t="s">
         <v>13</v>
       </c>
       <c r="J6" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="K6" t="s">
         <v>21</v>
@@ -681,37 +681,37 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>72.2011811490978</v>
+        <v>-0.047003254690582</v>
       </c>
       <c r="B7" t="n">
-        <v>20.9869660482663</v>
+        <v>0.0245487570541651</v>
       </c>
       <c r="C7" t="n">
-        <v>37.6776219996997</v>
+        <v>-0.0873859600446835</v>
       </c>
       <c r="D7" t="n">
-        <v>106.724740298496</v>
+        <v>-0.00662054933648046</v>
       </c>
       <c r="E7" t="n">
-        <v>31.0667276944959</v>
+        <v>-0.0951188185167455</v>
       </c>
       <c r="F7" t="n">
-        <v>113.3356346037</v>
+        <v>0.00111230913558153</v>
       </c>
       <c r="G7" t="n">
-        <v>18.1387566087638</v>
+        <v>-0.110240852862111</v>
       </c>
       <c r="H7" t="n">
-        <v>126.263605689432</v>
+        <v>0.0162343434809472</v>
       </c>
       <c r="I7" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="J7" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="K7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L7" t="s">
         <v>16</v>
@@ -722,28 +722,28 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3.802359983487</v>
+        <v>0.301175543610196</v>
       </c>
       <c r="B8" t="n">
-        <v>0.760988161627314</v>
+        <v>0.0887932062615492</v>
       </c>
       <c r="C8" t="n">
-        <v>2.55053445761006</v>
+        <v>0.155110719309948</v>
       </c>
       <c r="D8" t="n">
-        <v>5.05418550936393</v>
+        <v>0.447240367910444</v>
       </c>
       <c r="E8" t="n">
-        <v>2.31082318669746</v>
+        <v>0.12714085933756</v>
       </c>
       <c r="F8" t="n">
-        <v>5.29389678027653</v>
+        <v>0.475210227882832</v>
       </c>
       <c r="G8" t="n">
-        <v>1.84205447913504</v>
+        <v>0.0724442442804452</v>
       </c>
       <c r="H8" t="n">
-        <v>5.76266548783896</v>
+        <v>0.529906842939947</v>
       </c>
       <c r="I8" t="s">
         <v>13</v>
@@ -752,7 +752,7 @@
         <v>14</v>
       </c>
       <c r="K8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L8" t="s">
         <v>16</v>
@@ -763,37 +763,37 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3.67199079526717</v>
+        <v>0.862731831873155</v>
       </c>
       <c r="B9" t="n">
-        <v>0.930129833020484</v>
+        <v>0.137634318242993</v>
       </c>
       <c r="C9" t="n">
-        <v>2.14192721994848</v>
+        <v>0.636323378363431</v>
       </c>
       <c r="D9" t="n">
-        <v>5.20205437058587</v>
+        <v>1.08914028538288</v>
       </c>
       <c r="E9" t="n">
-        <v>1.84893632254702</v>
+        <v>0.592968568116889</v>
       </c>
       <c r="F9" t="n">
-        <v>5.49504526798732</v>
+        <v>1.13249509562942</v>
       </c>
       <c r="G9" t="n">
-        <v>1.27597634540641</v>
+        <v>0.508185828079205</v>
       </c>
       <c r="H9" t="n">
-        <v>6.06800524512794</v>
+        <v>1.21727783566711</v>
       </c>
       <c r="I9" t="s">
         <v>13</v>
       </c>
       <c r="J9" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="K9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L9" t="s">
         <v>16</v>
@@ -804,37 +804,37 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.455187559354226</v>
+        <v>1.36771810173345</v>
       </c>
       <c r="B10" t="n">
-        <v>1.29867752460448</v>
+        <v>1.03115700034871</v>
       </c>
       <c r="C10" t="n">
-        <v>-1.68113696862015</v>
+        <v>-0.328535163840175</v>
       </c>
       <c r="D10" t="n">
-        <v>2.5915120873286</v>
+        <v>3.06397136730707</v>
       </c>
       <c r="E10" t="n">
-        <v>-2.09022038887056</v>
+        <v>-0.653349618950018</v>
       </c>
       <c r="F10" t="n">
-        <v>3.00059550757901</v>
+        <v>3.38878582241691</v>
       </c>
       <c r="G10" t="n">
-        <v>-2.89020574402692</v>
+        <v>-1.28854233116482</v>
       </c>
       <c r="H10" t="n">
-        <v>3.80058086273537</v>
+        <v>4.02397853463171</v>
       </c>
       <c r="I10" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="J10" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="K10" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="L10" t="s">
         <v>16</v>
@@ -845,37 +845,37 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.456667054549216</v>
+        <v>52.7582308068637</v>
       </c>
       <c r="B11" t="n">
-        <v>0.12584480108084</v>
+        <v>14.6812976549272</v>
       </c>
       <c r="C11" t="n">
-        <v>0.249652356771234</v>
+        <v>28.6074961645085</v>
       </c>
       <c r="D11" t="n">
-        <v>0.663681752327198</v>
+        <v>76.9089654492189</v>
       </c>
       <c r="E11" t="n">
-        <v>0.210011244430769</v>
+        <v>23.9828874032064</v>
       </c>
       <c r="F11" t="n">
-        <v>0.703322864667662</v>
+        <v>81.533574210521</v>
       </c>
       <c r="G11" t="n">
-        <v>0.132490846964972</v>
+        <v>14.9392080477713</v>
       </c>
       <c r="H11" t="n">
-        <v>0.78084326213346</v>
+        <v>90.5772535659561</v>
       </c>
       <c r="I11" t="s">
         <v>13</v>
       </c>
       <c r="J11" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="K11" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="L11" t="s">
         <v>16</v>
@@ -886,37 +886,37 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.31746821448314</v>
+        <v>3.67199079526717</v>
       </c>
       <c r="B12" t="n">
-        <v>0.139958486937815</v>
+        <v>0.919409301045591</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0872365034704346</v>
+        <v>2.15956249504718</v>
       </c>
       <c r="D12" t="n">
-        <v>0.547699925495845</v>
+        <v>5.18441909548717</v>
       </c>
       <c r="E12" t="n">
-        <v>0.043149580085023</v>
+        <v>1.86994856521781</v>
       </c>
       <c r="F12" t="n">
-        <v>0.591786848881257</v>
+        <v>5.47403302531653</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.0430648478686709</v>
+        <v>1.30359243577373</v>
       </c>
       <c r="H12" t="n">
-        <v>0.678001276834951</v>
+        <v>6.04038915476062</v>
       </c>
       <c r="I12" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="J12" t="s">
+        <v>27</v>
+      </c>
+      <c r="K12" t="s">
         <v>19</v>
-      </c>
-      <c r="K12" t="s">
-        <v>23</v>
       </c>
       <c r="L12" t="s">
         <v>16</v>
@@ -927,37 +927,37 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0.107990012484394</v>
+        <v>0.31746821448314</v>
       </c>
       <c r="B13" t="n">
-        <v>0.149591758607075</v>
+        <v>0.149164905540263</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.354068455393032</v>
+        <v>0.0720919448694074</v>
       </c>
       <c r="D13" t="n">
-        <v>0.138088430424243</v>
+        <v>0.562844484096872</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.401189859354261</v>
+        <v>0.0251049996242246</v>
       </c>
       <c r="F13" t="n">
-        <v>0.185209834385472</v>
+        <v>0.609831429342055</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.493338382656219</v>
+        <v>-0.0667805821885774</v>
       </c>
       <c r="H13" t="n">
-        <v>0.27735835768743</v>
+        <v>0.701717011154857</v>
       </c>
       <c r="I13" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="J13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K13" t="s">
         <v>20</v>
-      </c>
-      <c r="K13" t="s">
-        <v>23</v>
       </c>
       <c r="L13" t="s">
         <v>16</v>
@@ -968,37 +968,37 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>8.28805451042758</v>
+        <v>7.52498618021006</v>
       </c>
       <c r="B14" t="n">
-        <v>1.97684717244242</v>
+        <v>2.15391717298983</v>
       </c>
       <c r="C14" t="n">
-        <v>5.0361409117598</v>
+        <v>3.98179243064179</v>
       </c>
       <c r="D14" t="n">
-        <v>11.5399681090954</v>
+        <v>11.0681799297783</v>
       </c>
       <c r="E14" t="n">
-        <v>4.41343405244044</v>
+        <v>3.30330852115</v>
       </c>
       <c r="F14" t="n">
-        <v>12.1626749684147</v>
+        <v>11.7466638392701</v>
       </c>
       <c r="G14" t="n">
-        <v>3.19569619421591</v>
+        <v>1.97649554258827</v>
       </c>
       <c r="H14" t="n">
-        <v>13.3804128266392</v>
+        <v>13.0734768178319</v>
       </c>
       <c r="I14" t="s">
         <v>13</v>
       </c>
       <c r="J14" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="K14" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="L14" t="s">
         <v>16</v>
@@ -1009,37 +1009,37 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>7.52498618021006</v>
+        <v>-0.0245432908838868</v>
       </c>
       <c r="B15" t="n">
-        <v>2.08691897626057</v>
+        <v>0.0240888236252812</v>
       </c>
       <c r="C15" t="n">
-        <v>4.09200446426142</v>
+        <v>-0.0641694057474744</v>
       </c>
       <c r="D15" t="n">
-        <v>10.9579678961587</v>
+        <v>0.0150828239797007</v>
       </c>
       <c r="E15" t="n">
-        <v>3.43462498673934</v>
+        <v>-0.0717573851894379</v>
       </c>
       <c r="F15" t="n">
-        <v>11.6153473736808</v>
+        <v>0.0226708034216643</v>
       </c>
       <c r="G15" t="n">
-        <v>2.14908289736283</v>
+        <v>-0.0865961005426111</v>
       </c>
       <c r="H15" t="n">
-        <v>12.9008894630573</v>
+        <v>0.0375095187748375</v>
       </c>
       <c r="I15" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="J15" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="K15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L15" t="s">
         <v>16</v>
@@ -1050,37 +1050,37 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>7.34725823489868</v>
+        <v>0.248099892976976</v>
       </c>
       <c r="B16" t="n">
-        <v>2.27314332042544</v>
+        <v>0.0879749760959272</v>
       </c>
       <c r="C16" t="n">
-        <v>3.60793747279884</v>
+        <v>0.103381057299175</v>
       </c>
       <c r="D16" t="n">
-        <v>11.0865789969985</v>
+        <v>0.392818728654776</v>
       </c>
       <c r="E16" t="n">
-        <v>2.89189732686482</v>
+        <v>0.0756689398289583</v>
       </c>
       <c r="F16" t="n">
-        <v>11.8026191429325</v>
+        <v>0.420530846124993</v>
       </c>
       <c r="G16" t="n">
-        <v>1.49164104148275</v>
+        <v>0.0214763545538671</v>
       </c>
       <c r="H16" t="n">
-        <v>13.2028754283146</v>
+        <v>0.474723431400084</v>
       </c>
       <c r="I16" t="s">
         <v>13</v>
       </c>
       <c r="J16" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="K16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L16" t="s">
         <v>16</v>
@@ -1091,37 +1091,37 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-0.047003254690582</v>
+        <v>0.477676710938774</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0251275413811412</v>
+        <v>0.141709596870477</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.0883380602625592</v>
+        <v>0.24456442408684</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.00566844911860478</v>
+        <v>0.710788997790708</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.0962532357976187</v>
+        <v>0.199925901072639</v>
       </c>
       <c r="F17" t="n">
-        <v>0.00224672641645467</v>
+        <v>0.755427520804909</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.111731801288402</v>
+        <v>0.112632789400426</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0177252919072376</v>
+        <v>0.842720632477122</v>
       </c>
       <c r="I17" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="J17" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="K17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L17" t="s">
         <v>16</v>
@@ -1132,37 +1132,37 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-0.0245432908838868</v>
+        <v>0.0986429467442125</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0254103312378354</v>
+        <v>0.73664009737836</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.0663432857701261</v>
+        <v>-1.11313001344319</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0172567040023525</v>
+        <v>1.31041590693161</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.0743475401100443</v>
+        <v>-1.34517164411737</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0252609583422706</v>
+        <v>1.5424575376058</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.0900003041525509</v>
+        <v>-1.79894194410244</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0409137223847773</v>
+        <v>1.99622783759087</v>
       </c>
       <c r="I18" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="J18" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="K18" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="L18" t="s">
         <v>16</v>
@@ -1173,37 +1173,37 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.00237018418845215</v>
+        <v>72.2011811490978</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0201656819840807</v>
+        <v>20.6951603452706</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.0308023626753606</v>
+        <v>38.1576423811277</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0355427310522649</v>
+        <v>106.244719917068</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.037154552500346</v>
+        <v>31.6386668723675</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0418949208772503</v>
+        <v>112.763695425828</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.0495766126025397</v>
+        <v>18.8904480996808</v>
       </c>
       <c r="H19" t="n">
-        <v>0.054316980979444</v>
+        <v>125.511914198515</v>
       </c>
       <c r="I19" t="s">
+        <v>13</v>
+      </c>
+      <c r="J19" t="s">
+        <v>29</v>
+      </c>
+      <c r="K19" t="s">
         <v>18</v>
-      </c>
-      <c r="J19" t="s">
-        <v>20</v>
-      </c>
-      <c r="K19" t="s">
-        <v>27</v>
       </c>
       <c r="L19" t="s">
         <v>16</v>
@@ -1214,37 +1214,37 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.301175543610196</v>
+        <v>0.455187559354226</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0908396450219144</v>
+        <v>1.38404586016816</v>
       </c>
       <c r="C20" t="n">
-        <v>0.151744327549147</v>
+        <v>-1.82156788062239</v>
       </c>
       <c r="D20" t="n">
-        <v>0.450606759671245</v>
+        <v>2.73194299933085</v>
       </c>
       <c r="E20" t="n">
-        <v>0.123129839367244</v>
+        <v>-2.25754232657536</v>
       </c>
       <c r="F20" t="n">
-        <v>0.479221247853148</v>
+        <v>3.16791744528382</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0671726180337445</v>
+        <v>-3.11011457643895</v>
       </c>
       <c r="H20" t="n">
-        <v>0.535178469186647</v>
+        <v>4.0204896951474</v>
       </c>
       <c r="I20" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="J20" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="K20" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="L20" t="s">
         <v>16</v>
@@ -1255,37 +1255,37 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.248099892976976</v>
+        <v>-0.107990012484394</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0921811768207059</v>
+        <v>0.15572071691661</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0964618571069143</v>
+        <v>-0.364150591812218</v>
       </c>
       <c r="D21" t="n">
-        <v>0.399737928847037</v>
+        <v>0.148170566843429</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0674247864083919</v>
+        <v>-0.41320261764095</v>
       </c>
       <c r="F21" t="n">
-        <v>0.428774999545559</v>
+        <v>0.197222592672161</v>
       </c>
       <c r="G21" t="n">
-        <v>0.010641181486837</v>
+        <v>-0.509126579261581</v>
       </c>
       <c r="H21" t="n">
-        <v>0.485558604467114</v>
+        <v>0.293146554292792</v>
       </c>
       <c r="I21" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="J21" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="K21" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="L21" t="s">
         <v>16</v>
@@ -1296,37 +1296,37 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.0457285330948122</v>
+        <v>7.34725823489868</v>
       </c>
       <c r="B22" t="n">
-        <v>0.15698778292086</v>
+        <v>2.40994223268673</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.212516369810002</v>
+        <v>3.38290326212902</v>
       </c>
       <c r="D22" t="n">
-        <v>0.303973435999626</v>
+        <v>11.3116132076683</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.261967521430073</v>
+        <v>2.6237714588327</v>
       </c>
       <c r="F22" t="n">
-        <v>0.353424587619697</v>
+        <v>12.0707450109647</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.358671995709322</v>
+        <v>1.13924704349767</v>
       </c>
       <c r="H22" t="n">
-        <v>0.450129061898947</v>
+        <v>13.5552694262997</v>
       </c>
       <c r="I22" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J22" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="K22" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="L22" t="s">
         <v>16</v>
@@ -1337,37 +1337,37 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.862731831873155</v>
+        <v>0.00237018418845215</v>
       </c>
       <c r="B23" t="n">
-        <v>0.128652771948398</v>
+        <v>0.0204125107189412</v>
       </c>
       <c r="C23" t="n">
-        <v>0.651098022018041</v>
+        <v>-0.031208395944206</v>
       </c>
       <c r="D23" t="n">
-        <v>1.07436564172827</v>
+        <v>0.0359487643211103</v>
       </c>
       <c r="E23" t="n">
-        <v>0.610572398854295</v>
+        <v>-0.0376383368206725</v>
       </c>
       <c r="F23" t="n">
-        <v>1.11489126489202</v>
+        <v>0.0423787051975768</v>
       </c>
       <c r="G23" t="n">
-        <v>0.531322291334082</v>
+        <v>-0.0502124434235403</v>
       </c>
       <c r="H23" t="n">
-        <v>1.19414137241223</v>
+        <v>0.0549528118004446</v>
       </c>
       <c r="I23" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="J23" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="K23" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="L23" t="s">
         <v>16</v>
@@ -1378,37 +1378,37 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.477676710938774</v>
+        <v>0.0457285330948122</v>
       </c>
       <c r="B24" t="n">
-        <v>0.13846547711509</v>
+        <v>0.162378095993569</v>
       </c>
       <c r="C24" t="n">
-        <v>0.249901001084451</v>
+        <v>-0.221383434814609</v>
       </c>
       <c r="D24" t="n">
-        <v>0.705452420793097</v>
+        <v>0.312840501004233</v>
       </c>
       <c r="E24" t="n">
-        <v>0.206284375793198</v>
+        <v>-0.272532535052583</v>
       </c>
       <c r="F24" t="n">
-        <v>0.749069046084351</v>
+        <v>0.363989601242208</v>
       </c>
       <c r="G24" t="n">
-        <v>0.120989641890302</v>
+        <v>-0.372557442184622</v>
       </c>
       <c r="H24" t="n">
-        <v>0.834363779987246</v>
+        <v>0.464014508374246</v>
       </c>
       <c r="I24" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="J24" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="K24" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="L24" t="s">
         <v>16</v>
@@ -1422,34 +1422,34 @@
         <v>0.323361823361823</v>
       </c>
       <c r="B25" t="n">
-        <v>0.153142194572016</v>
+        <v>0.145464871465165</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0714429132908564</v>
+        <v>0.0840721098016276</v>
       </c>
       <c r="D25" t="n">
-        <v>0.57528073343279</v>
+        <v>0.562651536922019</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0232031220006712</v>
+        <v>0.0382506752901007</v>
       </c>
       <c r="F25" t="n">
-        <v>0.623520524722975</v>
+        <v>0.608472971433546</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.0711324698556909</v>
+        <v>-0.0513556855324407</v>
       </c>
       <c r="H25" t="n">
-        <v>0.717856116579338</v>
+        <v>0.698079332256087</v>
       </c>
       <c r="I25" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J25" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="K25" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="L25" t="s">
         <v>16</v>
